--- a/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2021-9.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2021-9.xlsx
@@ -100,10 +100,10 @@
     <t>Aguas, Derechos Aprovechamiento, C. Aguas</t>
   </si>
   <si>
+    <t>Avaluación, Gestión De</t>
+  </si>
+  <si>
     <t>Contrato, Nulidad De</t>
-  </si>
-  <si>
-    <t>Avaluación, Gestión De</t>
   </si>
   <si>
     <t>Confesión De Deuda, Citación</t>
